--- a/report/A1/A1.xlsx
+++ b/report/A1/A1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Natsumeqi/Google Drive/Concordia/2021Winter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Natsumeqi/Google Drive/Concordia/2021Winter/1-COMP442/Assignments/COMP442-compiler-design/report/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272EA735-65C8-4D4C-A5A8-C6D644703C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC289C-50F6-184F-8072-32AB82085832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{0E8C4262-73D0-6446-A8AB-A1C01AC8BDB4}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{0E8C4262-73D0-6446-A8AB-A1C01AC8BDB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1284,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>9</v>

--- a/report/A1/A1.xlsx
+++ b/report/A1/A1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Natsumeqi/Google Drive/Concordia/2021Winter/1-COMP442/Assignments/COMP442-compiler-design/report/A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC289C-50F6-184F-8072-32AB82085832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDFBD63-05EC-BB4B-A1E7-92D41DC4D400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{0E8C4262-73D0-6446-A8AB-A1C01AC8BDB4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20080" xr2:uid="{0E8C4262-73D0-6446-A8AB-A1C01AC8BDB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114BF78-9865-5849-AB5A-B7D5E1B77EE0}">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -2062,43 +2062,43 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q22">
         <v>17</v>
@@ -4179,6 +4179,74 @@
       </c>
       <c r="V51">
         <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
